--- a/Project Development Phase/Sprint 4/Testing/Expense Tracker Testcases Report.xlsx
+++ b/Project Development Phase/Sprint 4/Testing/Expense Tracker Testcases Report.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -99,7 +99,23 @@
 3.Verify login/Singup popup displayed or not</t>
   </si>
   <si>
-    <t>https://shopenzer.com/</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>https://localhost</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF0000FF"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>:5000</t>
+    </r>
   </si>
   <si>
     <t>Login/Signup popup should display</t>
@@ -134,6 +150,25 @@
 c.Login button
 d.New customer? Create account link
 e.Last password? Recovery password link</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>https://localhost</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF0000FF"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>:5000</t>
+    </r>
   </si>
   <si>
     <t>Application should show below UI elements:
@@ -527,7 +562,7 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -2180,26 +2215,26 @@
         <v>35</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -2216,26 +2251,26 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -2243,7 +2278,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -2260,26 +2295,26 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -2287,7 +2322,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -2304,40 +2339,40 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -2354,34 +2389,34 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -2404,38 +2439,38 @@
     </row>
     <row r="12" ht="160.5" customHeight="1">
       <c r="A12" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
       <c r="N12" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
@@ -2452,40 +2487,40 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
       <c r="N13" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
@@ -30200,7 +30235,7 @@
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1">
       <c r="B3" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -30208,7 +30243,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -30216,7 +30251,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -30224,7 +30259,7 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -30232,7 +30267,7 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
@@ -30240,13 +30275,13 @@
         <v>5.0</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1"/>
     <row r="10" ht="14.25" customHeight="1">
       <c r="B10" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -30254,7 +30289,7 @@
         <v>1.0</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -30262,7 +30297,7 @@
         <v>2.0</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -30270,7 +30305,7 @@
         <v>3.0</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -30278,7 +30313,7 @@
         <v>4.0</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
@@ -30286,7 +30321,7 @@
         <v>5.0</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
